--- a/test/V10K5T3.xlsx
+++ b/test/V10K5T3.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\.juliapro\JuliaPro_v1.4.2-1\dev\Tomato\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF63E982-EE97-402F-AC10-F26F90246BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D490AB7-A84B-4885-9906-38DDE2A7F925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E18A145F-BAE8-4E1E-8EB2-101646E3D7A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="3" xr2:uid="{E18A145F-BAE8-4E1E-8EB2-101646E3D7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" r:id="rId1"/>
-    <sheet name="vehicles" sheetId="2" r:id="rId2"/>
-    <sheet name="periods" sheetId="3" r:id="rId3"/>
-    <sheet name="demands" sheetId="4" r:id="rId4"/>
+    <sheet name="distances" sheetId="6" r:id="rId2"/>
+    <sheet name="param" sheetId="5" r:id="rId3"/>
+    <sheet name="vehicles" sheetId="2" r:id="rId4"/>
+    <sheet name="periods" sheetId="3" r:id="rId5"/>
+    <sheet name="demands" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -66,27 +87,6 @@
     <t>START</t>
   </si>
   <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>cover</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>vl</t>
-  </si>
-  <si>
-    <t>vx</t>
-  </si>
-  <si>
-    <t>fp</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -96,12 +96,6 @@
     <t>point</t>
   </si>
   <si>
-    <t>truk A</t>
-  </si>
-  <si>
-    <t>truck</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -123,17 +117,144 @@
     <t>F</t>
   </si>
   <si>
-    <t>1 2 3 4 5 6 7 8 9 10 11</t>
-  </si>
-  <si>
-    <t>1 0 0 0 0 0 0 0 0 0 0</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CT_cost</t>
+  </si>
+  <si>
+    <t>BM_ARRV</t>
+  </si>
+  <si>
+    <t>BM_PICK_PETI</t>
+  </si>
+  <si>
+    <t>BM_PICK_TRIP</t>
+  </si>
+  <si>
+    <t>AKOM_TRIP</t>
+  </si>
+  <si>
+    <t>BBM_DIST</t>
+  </si>
+  <si>
+    <t>BBM_TRIP</t>
+  </si>
+  <si>
+    <t>PDDN_TRIP</t>
+  </si>
+  <si>
+    <t>KAWAL_TRIP</t>
+  </si>
+  <si>
+    <t>kapasitas</t>
+  </si>
+  <si>
+    <t>peti_cost</t>
+  </si>
+  <si>
+    <t>trip_cost</t>
+  </si>
+  <si>
+    <t>dist_cost</t>
+  </si>
+  <si>
+    <t>limit_jakarta</t>
+  </si>
+  <si>
+    <t>limit_non_jakarta</t>
+  </si>
+  <si>
+    <t>jarak</t>
+  </si>
+  <si>
+    <t>Asal</t>
+  </si>
+  <si>
+    <t>Tujuan</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>TRUK</t>
+  </si>
+  <si>
+    <t>KRTA</t>
+  </si>
+  <si>
+    <t>KPNG</t>
+  </si>
+  <si>
+    <t>KBRG</t>
+  </si>
+  <si>
+    <t>PSWT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +262,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -158,18 +293,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -180,6 +452,115 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85285D63-902E-4BEF-B520-EEA5C23DD3FC}" name="Table2" displayName="Table2" ref="A1:I12" totalsRowShown="0">
+  <autoFilter ref="A1:I12" xr:uid="{6DC3FE89-4B08-4011-A03F-F17D9F817720}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{1A0B4B02-64D6-4928-B651-7AC8EFA774AD}" name="name"/>
+    <tableColumn id="2" xr3:uid="{A7AF17AF-9DE5-47B8-BB5B-F367D14BD3AA}" name="ID"/>
+    <tableColumn id="3" xr3:uid="{1039F8D3-0107-4F05-BDAB-A66DF926EE2D}" name="type"/>
+    <tableColumn id="4" xr3:uid="{FE475A9A-EBC5-4297-B411-84938B55E1D3}" name="x"/>
+    <tableColumn id="5" xr3:uid="{D1941E15-35EA-4940-9C52-E28741638593}" name="y"/>
+    <tableColumn id="6" xr3:uid="{FC0DC34C-E846-4E3D-9F3E-827F34BE453E}" name="MAX"/>
+    <tableColumn id="7" xr3:uid="{3BCB6CA7-45B5-4586-A468-38AAF14CF41A}" name="h"/>
+    <tableColumn id="8" xr3:uid="{2533D65D-6BB3-48E3-BBF4-A88EF2D45BF3}" name="MIN"/>
+    <tableColumn id="9" xr3:uid="{418EB95A-798C-4964-804F-2FC2E55C98D8}" name="START"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{680895C7-74C8-4058-AE72-08B97032AB15}" name="Table3" displayName="Table3" ref="A1:P6" totalsRowShown="0">
+  <autoFilter ref="A1:P6" xr:uid="{30369484-2608-49C8-962F-09350151283F}"/>
+  <tableColumns count="16">
+    <tableColumn id="2" xr3:uid="{C7BF1CBD-9EE0-49CD-B73A-EE4053F39950}" name="type"/>
+    <tableColumn id="4" xr3:uid="{0F86334C-9AD3-49B6-A73B-F8A3B2937436}" name="CT_cost" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{18477B85-F7ED-4CA7-AD0D-93C31C24455A}" name="BM_ARRV" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{E9DB72CE-AA9B-4296-AD71-F3DD2E9DD547}" name="BM_PICK_PETI" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{0C86DD02-24F5-4430-9334-AA0A5C8F0713}" name="BM_PICK_TRIP" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{2C6A67D3-CE98-4F7E-9CD9-790456C15EAE}" name="AKOM_TRIP" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{A4F71952-6BC4-473C-A019-91B70E1E7DBB}" name="BBM_TRIP" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{260B6533-EC1F-4057-8C10-462D0D937B29}" name="PDDN_TRIP" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{E9758C6E-5406-442A-A0A0-F76B8117EED6}" name="KAWAL_TRIP" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{BE2CC0FE-CAC3-4E2A-82BE-74281B8BFFDF}" name="BBM_DIST" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{58232AE4-0392-46ED-B6CC-2EE198865A22}" name="kapasitas"/>
+    <tableColumn id="15" xr3:uid="{0E85D22B-0099-4BF0-9CE0-B81FC1482CE6}" name="peti_cost" dataDxfId="22">
+      <calculatedColumnFormula>SUM(Table3[[#This Row],[CT_cost]:[BM_PICK_PETI]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{1A7477DD-59C8-4363-AD72-FBBC61239B59}" name="trip_cost" dataDxfId="21">
+      <calculatedColumnFormula>E2+Table3[[#This Row],[AKOM_TRIP]]+Table3[[#This Row],[BBM_TRIP]]+Table3[[#This Row],[PDDN_TRIP]]+Table3[[#This Row],[KAWAL_TRIP]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{1E9E5270-AB37-4BDF-B91F-85F381058D78}" name="dist_cost" dataDxfId="20">
+      <calculatedColumnFormula>Table3[[#This Row],[BBM_DIST]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{619F61ED-2057-408D-8A93-F498DC5A51CE}" name="limit_jakarta" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{59689E15-EC44-40D0-9181-84C8E526CA36}" name="limit_non_jakarta" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{003BEB9B-E04B-42E9-92D3-F178A87046B8}" name="Table4" displayName="Table4" ref="A1:H51" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A1:H51" xr:uid="{0A3731B2-A0DB-4C5C-B139-42EC52B5F188}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A07DC845-F7C7-47FF-B289-573CB3D26231}" name="Asal"/>
+    <tableColumn id="2" xr3:uid="{2980B99D-82E2-4575-B898-95E34E7628E6}" name="Tujuan"/>
+    <tableColumn id="3" xr3:uid="{0AB78FDD-4D28-42F4-B500-4A7E20E1203C}" name="Moda"/>
+    <tableColumn id="4" xr3:uid="{AF5E4F2F-AE52-44EA-B778-98EA95FB1980}" name="jarak" dataDxfId="14">
+      <calculatedColumnFormula>INDEX(distances!$B$2:$L$12,MATCH(A2,distances!$A$2:$A$12,0),MATCH(B2,distances!$B$1:$L$1,0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{87FA69A4-3338-4C7D-B084-2227C32B89E5}" name="peti_cost" dataDxfId="13">
+      <calculatedColumnFormula>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{72C20E77-7E1E-4207-9B0C-A1AAA6268E74}" name="trip_cost" dataDxfId="12">
+      <calculatedColumnFormula>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{91B792E4-21B5-4D18-B1B2-F2264858BEBF}" name="kapasitas" dataDxfId="11">
+      <calculatedColumnFormula>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{396F4F66-B16E-46BC-B93F-4C2784CE7FD3}" name="limit" dataDxfId="10">
+      <calculatedColumnFormula>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7F88561E-68FA-490E-B220-A48CB349B67B}" name="Table5" displayName="Table5" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{4FC09E2F-A688-4A63-BDEB-817CBC66BB7D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{38C75AB8-0D9D-42DA-B4E3-3812DF6A5C61}" name="T"/>
+    <tableColumn id="2" xr3:uid="{F0649845-3641-4BB7-912A-1CBD4CBE7A67}" name="start"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1449E32D-94FA-49E8-A969-C7FF63989018}" name="Table6" displayName="Table6" ref="A1:M12" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:M12" xr:uid="{B4559D11-596F-45D0-8647-AD0D8B743F66}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{C48F8F5C-0A16-4766-BB8E-C7A1C6E27421}" name="point"/>
+    <tableColumn id="2" xr3:uid="{595DDD7B-7979-4EDB-BA0F-4E0B33568096}" name="1"/>
+    <tableColumn id="3" xr3:uid="{1E010B5E-4E46-4F94-BFBA-FA5788B25611}" name="2"/>
+    <tableColumn id="4" xr3:uid="{AA4C41DF-C1DB-4DB4-A9F3-51B48E703336}" name="3"/>
+    <tableColumn id="5" xr3:uid="{1B381961-773B-443E-93BF-99D708AB3C2F}" name="4"/>
+    <tableColumn id="6" xr3:uid="{B679AC38-E3BC-41F9-BD79-8DBCFEF9A4B1}" name="5"/>
+    <tableColumn id="7" xr3:uid="{D59F7D28-8F72-477F-BA32-CD4279824DBF}" name="6"/>
+    <tableColumn id="8" xr3:uid="{A026A5D7-4E61-40F5-8CDE-6B3C4F5A9774}" name="7"/>
+    <tableColumn id="9" xr3:uid="{8F140A35-E64D-4EDC-B6AC-B3106D51217E}" name="8"/>
+    <tableColumn id="10" xr3:uid="{5F7C2D9A-61AD-443A-942E-38E155988F16}" name="9"/>
+    <tableColumn id="11" xr3:uid="{784DAD97-0650-417D-B748-5937BC026754}" name="10"/>
+    <tableColumn id="12" xr3:uid="{176CB05A-3F1F-498D-9F47-5A9313B5EAAC}" name="11"/>
+    <tableColumn id="13" xr3:uid="{91B93FA6-85F0-46B0-A49C-706BEBC8A5E1}" name="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,14 +863,16 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="4" max="5" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -497,39 +880,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>444</v>
@@ -538,27 +921,27 @@
         <v>237</v>
       </c>
       <c r="F2">
-        <v>1583</v>
+        <v>99999</v>
       </c>
       <c r="G2">
-        <v>99999</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>152</v>
@@ -567,27 +950,27 @@
         <v>180</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="G3">
-        <v>174</v>
+        <v>0.23</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>230</v>
@@ -596,27 +979,27 @@
         <v>141</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>0.32</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>134</v>
@@ -625,27 +1008,27 @@
         <v>163</v>
       </c>
       <c r="F5">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="G5">
-        <v>258</v>
+        <v>0.33</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.33</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>459</v>
@@ -654,27 +1037,27 @@
         <v>282</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>0.23</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>269</v>
@@ -683,27 +1066,27 @@
         <v>455</v>
       </c>
       <c r="F7">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="G7">
-        <v>126</v>
+        <v>0.18</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>79</v>
@@ -712,27 +1095,27 @@
         <v>326</v>
       </c>
       <c r="F8">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="G8">
-        <v>138</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.28999999999999998</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -741,27 +1124,27 @@
         <v>235</v>
       </c>
       <c r="F9">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="G9">
-        <v>237</v>
+        <v>0.42</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.42</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>51</v>
@@ -770,27 +1153,27 @@
         <v>412</v>
       </c>
       <c r="F10">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="G10">
-        <v>129</v>
+        <v>0.42</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>310</v>
@@ -799,27 +1182,27 @@
         <v>113</v>
       </c>
       <c r="F11">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="G11">
-        <v>154</v>
+        <v>0.24</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>312</v>
@@ -828,106 +1211,608 @@
         <v>266</v>
       </c>
       <c r="F12">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="G12">
-        <v>189</v>
+        <v>0.43</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.43</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AFEFAC-1C3D-4E76-8A31-0884319162F7}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92DBA9B-1FAA-4B36-86A0-EA0E77534B0A}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A12">TRANSPOSE(B1:L1)</f>
+        <v>A</v>
+      </c>
+      <c r="B2">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2),0)</f>
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
+      <c r="C2">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>298</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>235</v>
+      </c>
+      <c r="E2">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>319</v>
       </c>
       <c r="F2">
-        <v>952</v>
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>47</v>
       </c>
       <c r="G2">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>280</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>376</v>
+      </c>
+      <c r="I2">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>439</v>
+      </c>
+      <c r="J2">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>430</v>
+      </c>
+      <c r="K2">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>183</v>
+      </c>
+      <c r="L2">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A2,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <v>B</v>
+      </c>
+      <c r="B3">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>298</v>
+      </c>
+      <c r="C3">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2),0)</f>
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="D3">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>324</v>
+      </c>
+      <c r="G3">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>299</v>
+      </c>
+      <c r="H3">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>163</v>
+      </c>
+      <c r="I3">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>157</v>
+      </c>
+      <c r="J3">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>253</v>
+      </c>
+      <c r="K3">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>172</v>
+      </c>
+      <c r="L3">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A3,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <v>C</v>
+      </c>
+      <c r="B4">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>235</v>
+      </c>
+      <c r="C4">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2),0)</f>
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="E4">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>98</v>
+      </c>
+      <c r="F4">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>269</v>
+      </c>
+      <c r="G4">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>316</v>
+      </c>
+      <c r="H4">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>239</v>
+      </c>
+      <c r="I4">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>244</v>
+      </c>
+      <c r="J4">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>325</v>
+      </c>
+      <c r="K4">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>85</v>
+      </c>
+      <c r="L4">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A4,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <v>D</v>
+      </c>
+      <c r="B5">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>319</v>
+      </c>
+      <c r="C5">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>98</v>
+      </c>
+      <c r="E5">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>346</v>
+      </c>
+      <c r="G5">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>322</v>
+      </c>
+      <c r="H5">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>172</v>
+      </c>
+      <c r="I5">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>148</v>
+      </c>
+      <c r="J5">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>262</v>
+      </c>
+      <c r="K5">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>183</v>
+      </c>
+      <c r="L5">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A5,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <v>E</v>
+      </c>
+      <c r="B6">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>324</v>
+      </c>
+      <c r="D6">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>269</v>
+      </c>
+      <c r="E6">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>346</v>
+      </c>
+      <c r="F6">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>257</v>
+      </c>
+      <c r="H6">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>383</v>
+      </c>
+      <c r="I6">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>456</v>
+      </c>
+      <c r="J6">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>428</v>
+      </c>
+      <c r="K6">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>225</v>
+      </c>
+      <c r="L6">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A6,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <v>F</v>
+      </c>
+      <c r="B7">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>280</v>
+      </c>
+      <c r="C7">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>299</v>
+      </c>
+      <c r="D7">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>316</v>
+      </c>
+      <c r="E7">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>322</v>
+      </c>
+      <c r="F7">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>257</v>
+      </c>
+      <c r="G7">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>230</v>
+      </c>
+      <c r="I7">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>344</v>
+      </c>
+      <c r="J7">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>222</v>
+      </c>
+      <c r="K7">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>344</v>
+      </c>
+      <c r="L7">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A7,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <v>G</v>
+      </c>
+      <c r="B8">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>376</v>
+      </c>
+      <c r="C8">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>163</v>
+      </c>
+      <c r="D8">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>239</v>
+      </c>
+      <c r="E8">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>172</v>
+      </c>
+      <c r="F8">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>383</v>
+      </c>
+      <c r="G8">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>230</v>
+      </c>
+      <c r="H8">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>117</v>
+      </c>
+      <c r="J8">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>90</v>
+      </c>
+      <c r="K8">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>314</v>
+      </c>
+      <c r="L8">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A8,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <v>H</v>
+      </c>
+      <c r="B9">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>439</v>
+      </c>
+      <c r="C9">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>157</v>
+      </c>
+      <c r="D9">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>244</v>
+      </c>
+      <c r="E9">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>148</v>
+      </c>
+      <c r="F9">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>456</v>
+      </c>
+      <c r="G9">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>344</v>
+      </c>
+      <c r="H9">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>117</v>
+      </c>
+      <c r="I9">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>183</v>
+      </c>
+      <c r="K9">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>328</v>
+      </c>
+      <c r="L9">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A9,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <v>I</v>
+      </c>
+      <c r="B10">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>430</v>
+      </c>
+      <c r="C10">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>253</v>
+      </c>
+      <c r="D10">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>325</v>
+      </c>
+      <c r="E10">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>262</v>
+      </c>
+      <c r="F10">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>428</v>
+      </c>
+      <c r="G10">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>222</v>
+      </c>
+      <c r="H10">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>183</v>
+      </c>
+      <c r="J10">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>396</v>
+      </c>
+      <c r="L10">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A10,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <v>J</v>
+      </c>
+      <c r="B11">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>183</v>
+      </c>
+      <c r="C11">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>172</v>
+      </c>
+      <c r="D11">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>85</v>
+      </c>
+      <c r="E11">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>183</v>
+      </c>
+      <c r="F11">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>225</v>
+      </c>
+      <c r="G11">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>344</v>
+      </c>
+      <c r="H11">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>314</v>
+      </c>
+      <c r="I11">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>328</v>
+      </c>
+      <c r="J11">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>396</v>
+      </c>
+      <c r="K11">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A11,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <v>K</v>
+      </c>
+      <c r="B12">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!B$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>135</v>
+      </c>
+      <c r="C12">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!C$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>182</v>
+      </c>
+      <c r="D12">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!D$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>149</v>
+      </c>
+      <c r="E12">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!E$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>206</v>
+      </c>
+      <c r="F12">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!F$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>148</v>
+      </c>
+      <c r="G12">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!G$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>194</v>
+      </c>
+      <c r="H12">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!H$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>241</v>
+      </c>
+      <c r="I12">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!I$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>309</v>
+      </c>
+      <c r="J12">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!J$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>299</v>
+      </c>
+      <c r="K12">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!K$1,vertices!$A$2:$A$12,0)))^2),0)</f>
+        <v>153</v>
+      </c>
+      <c r="L12">
+        <f>ROUND(SQRT((INDEX(vertices!$D$2:$D$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$D$2:$D$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2+(INDEX(vertices!$E$2:$E$12,MATCH(distances!$A12,vertices!$A$2:$A$12,0))-INDEX(vertices!$E$2:$E$12,MATCH(distances!L$1,vertices!$A$2:$A$12,0)))^2),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -937,25 +1822,1989 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794E0F96-FAC5-48E4-9E79-90A26A0A97B7}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>19000000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <f>SUM(Table3[[#This Row],[CT_cost]:[BM_PICK_PETI]])</f>
+        <v>10000</v>
+      </c>
+      <c r="M2" s="2">
+        <f>E2+Table3[[#This Row],[AKOM_TRIP]]+Table3[[#This Row],[BBM_TRIP]]+Table3[[#This Row],[PDDN_TRIP]]+Table3[[#This Row],[KAWAL_TRIP]]</f>
+        <v>40000000</v>
+      </c>
+      <c r="N2" s="2">
+        <f>Table3[[#This Row],[BBM_DIST]]</f>
+        <v>2000</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2">
+        <v>60000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>14000000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>22000000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>72</v>
+      </c>
+      <c r="L3" s="2">
+        <f>SUM(Table3[[#This Row],[CT_cost]:[BM_PICK_PETI]])</f>
+        <v>60000</v>
+      </c>
+      <c r="M3" s="2">
+        <f>E3+Table3[[#This Row],[AKOM_TRIP]]+Table3[[#This Row],[BBM_TRIP]]+Table3[[#This Row],[PDDN_TRIP]]+Table3[[#This Row],[KAWAL_TRIP]]</f>
+        <v>47000000</v>
+      </c>
+      <c r="N3" s="2">
+        <f>Table3[[#This Row],[BBM_DIST]]</f>
+        <v>1000</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2">
+        <v>90000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>14000000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>34000000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4" s="2">
+        <f>SUM(Table3[[#This Row],[CT_cost]:[BM_PICK_PETI]])</f>
+        <v>90000</v>
+      </c>
+      <c r="M4" s="2">
+        <f>E4+Table3[[#This Row],[AKOM_TRIP]]+Table3[[#This Row],[BBM_TRIP]]+Table3[[#This Row],[PDDN_TRIP]]+Table3[[#This Row],[KAWAL_TRIP]]</f>
+        <v>59000000</v>
+      </c>
+      <c r="N4" s="2">
+        <f>Table3[[#This Row],[BBM_DIST]]</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>14000000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>14000000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45000</v>
+      </c>
+      <c r="K5">
+        <v>130</v>
+      </c>
+      <c r="L5" s="2">
+        <f>SUM(Table3[[#This Row],[CT_cost]:[BM_PICK_PETI]])</f>
+        <v>6000</v>
+      </c>
+      <c r="M5" s="2">
+        <f>E5+Table3[[#This Row],[AKOM_TRIP]]+Table3[[#This Row],[BBM_TRIP]]+Table3[[#This Row],[PDDN_TRIP]]+Table3[[#This Row],[KAWAL_TRIP]]</f>
+        <v>34000000</v>
+      </c>
+      <c r="N5" s="2">
+        <f>Table3[[#This Row],[BBM_DIST]]</f>
+        <v>45000</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
+      <c r="L6" s="2">
+        <f>SUM(Table3[[#This Row],[CT_cost]:[BM_PICK_PETI]])</f>
+        <v>11000</v>
+      </c>
+      <c r="M6" s="2">
+        <f>E6+Table3[[#This Row],[AKOM_TRIP]]+Table3[[#This Row],[BBM_TRIP]]+Table3[[#This Row],[PDDN_TRIP]]+Table3[[#This Row],[KAWAL_TRIP]]</f>
+        <v>40010000</v>
+      </c>
+      <c r="N6" s="2">
+        <f>Table3[[#This Row],[BBM_DIST]]</f>
+        <v>1000</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AFEFAC-1C3D-4E76-8A31-0884319162F7}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A2,distances!$A$2:$A$12,0),MATCH(B2,distances!$B$1:$L$1,0))</f>
+        <v>298</v>
+      </c>
+      <c r="E2" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="F2" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40596000</v>
+      </c>
+      <c r="G2">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A3,distances!$A$2:$A$12,0),MATCH(B3,distances!$B$1:$L$1,0))</f>
+        <v>235</v>
+      </c>
+      <c r="E3" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="F3" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40470000</v>
+      </c>
+      <c r="G3">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A4,distances!$A$2:$A$12,0),MATCH(B4,distances!$B$1:$L$1,0))</f>
+        <v>319</v>
+      </c>
+      <c r="E4" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="F4" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40638000</v>
+      </c>
+      <c r="G4">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A5,distances!$A$2:$A$12,0),MATCH(B5,distances!$B$1:$L$1,0))</f>
+        <v>47</v>
+      </c>
+      <c r="E5" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="F5" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40094000</v>
+      </c>
+      <c r="G5">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A6,distances!$A$2:$A$12,0),MATCH(B6,distances!$B$1:$L$1,0))</f>
+        <v>280</v>
+      </c>
+      <c r="E6" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="F6" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40560000</v>
+      </c>
+      <c r="G6">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A7,distances!$A$2:$A$12,0),MATCH(B7,distances!$B$1:$L$1,0))</f>
+        <v>376</v>
+      </c>
+      <c r="E7" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="F7" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40752000</v>
+      </c>
+      <c r="G7">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A8,distances!$A$2:$A$12,0),MATCH(B8,distances!$B$1:$L$1,0))</f>
+        <v>439</v>
+      </c>
+      <c r="E8" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="F8" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40878000</v>
+      </c>
+      <c r="G8">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A9,distances!$A$2:$A$12,0),MATCH(B9,distances!$B$1:$L$1,0))</f>
+        <v>430</v>
+      </c>
+      <c r="E9" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="F9" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40860000</v>
+      </c>
+      <c r="G9">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A10,distances!$A$2:$A$12,0),MATCH(B10,distances!$B$1:$L$1,0))</f>
+        <v>183</v>
+      </c>
+      <c r="E10" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="F10" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40366000</v>
+      </c>
+      <c r="G10">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A11,distances!$A$2:$A$12,0),MATCH(B11,distances!$B$1:$L$1,0))</f>
+        <v>135</v>
+      </c>
+      <c r="E11" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>10000</v>
+      </c>
+      <c r="F11" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40270000</v>
+      </c>
+      <c r="G11">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>28</v>
+      </c>
+      <c r="H11">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A12,distances!$A$2:$A$12,0),MATCH(B12,distances!$B$1:$L$1,0))</f>
+        <v>298</v>
+      </c>
+      <c r="E12" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>60000</v>
+      </c>
+      <c r="F12" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>47298000</v>
+      </c>
+      <c r="G12">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>72</v>
+      </c>
+      <c r="H12">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A13,distances!$A$2:$A$12,0),MATCH(B13,distances!$B$1:$L$1,0))</f>
+        <v>235</v>
+      </c>
+      <c r="E13" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>60000</v>
+      </c>
+      <c r="F13" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>47235000</v>
+      </c>
+      <c r="G13">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A14,distances!$A$2:$A$12,0),MATCH(B14,distances!$B$1:$L$1,0))</f>
+        <v>319</v>
+      </c>
+      <c r="E14" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>60000</v>
+      </c>
+      <c r="F14" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>47319000</v>
+      </c>
+      <c r="G14">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>72</v>
+      </c>
+      <c r="H14">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A15,distances!$A$2:$A$12,0),MATCH(B15,distances!$B$1:$L$1,0))</f>
+        <v>47</v>
+      </c>
+      <c r="E15" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>60000</v>
+      </c>
+      <c r="F15" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>47047000</v>
+      </c>
+      <c r="G15">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>72</v>
+      </c>
+      <c r="H15">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A16,distances!$A$2:$A$12,0),MATCH(B16,distances!$B$1:$L$1,0))</f>
+        <v>280</v>
+      </c>
+      <c r="E16" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>60000</v>
+      </c>
+      <c r="F16" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>47280000</v>
+      </c>
+      <c r="G16">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>72</v>
+      </c>
+      <c r="H16">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A17,distances!$A$2:$A$12,0),MATCH(B17,distances!$B$1:$L$1,0))</f>
+        <v>376</v>
+      </c>
+      <c r="E17" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>60000</v>
+      </c>
+      <c r="F17" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>47376000</v>
+      </c>
+      <c r="G17">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>72</v>
+      </c>
+      <c r="H17">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A18,distances!$A$2:$A$12,0),MATCH(B18,distances!$B$1:$L$1,0))</f>
+        <v>439</v>
+      </c>
+      <c r="E18" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>60000</v>
+      </c>
+      <c r="F18" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>47439000</v>
+      </c>
+      <c r="G18">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>72</v>
+      </c>
+      <c r="H18">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A19,distances!$A$2:$A$12,0),MATCH(B19,distances!$B$1:$L$1,0))</f>
+        <v>430</v>
+      </c>
+      <c r="E19" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>60000</v>
+      </c>
+      <c r="F19" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>47430000</v>
+      </c>
+      <c r="G19">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>72</v>
+      </c>
+      <c r="H19">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A20,distances!$A$2:$A$12,0),MATCH(B20,distances!$B$1:$L$1,0))</f>
+        <v>183</v>
+      </c>
+      <c r="E20" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>60000</v>
+      </c>
+      <c r="F20" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>47183000</v>
+      </c>
+      <c r="G20">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>72</v>
+      </c>
+      <c r="H20">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A21,distances!$A$2:$A$12,0),MATCH(B21,distances!$B$1:$L$1,0))</f>
+        <v>135</v>
+      </c>
+      <c r="E21" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>60000</v>
+      </c>
+      <c r="F21" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>47135000</v>
+      </c>
+      <c r="G21">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>72</v>
+      </c>
+      <c r="H21">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A22,distances!$A$2:$A$12,0),MATCH(B22,distances!$B$1:$L$1,0))</f>
+        <v>298</v>
+      </c>
+      <c r="E22" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90000</v>
+      </c>
+      <c r="F22" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>59000000</v>
+      </c>
+      <c r="G22">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>300</v>
+      </c>
+      <c r="H22">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A23,distances!$A$2:$A$12,0),MATCH(B23,distances!$B$1:$L$1,0))</f>
+        <v>235</v>
+      </c>
+      <c r="E23" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90000</v>
+      </c>
+      <c r="F23" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>59000000</v>
+      </c>
+      <c r="G23">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>300</v>
+      </c>
+      <c r="H23">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A24,distances!$A$2:$A$12,0),MATCH(B24,distances!$B$1:$L$1,0))</f>
+        <v>319</v>
+      </c>
+      <c r="E24" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90000</v>
+      </c>
+      <c r="F24" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>59000000</v>
+      </c>
+      <c r="G24">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>300</v>
+      </c>
+      <c r="H24">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A25,distances!$A$2:$A$12,0),MATCH(B25,distances!$B$1:$L$1,0))</f>
+        <v>47</v>
+      </c>
+      <c r="E25" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90000</v>
+      </c>
+      <c r="F25" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>59000000</v>
+      </c>
+      <c r="G25">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>300</v>
+      </c>
+      <c r="H25">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A26,distances!$A$2:$A$12,0),MATCH(B26,distances!$B$1:$L$1,0))</f>
+        <v>280</v>
+      </c>
+      <c r="E26" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90000</v>
+      </c>
+      <c r="F26" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>59000000</v>
+      </c>
+      <c r="G26">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>300</v>
+      </c>
+      <c r="H26">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A27,distances!$A$2:$A$12,0),MATCH(B27,distances!$B$1:$L$1,0))</f>
+        <v>376</v>
+      </c>
+      <c r="E27" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90000</v>
+      </c>
+      <c r="F27" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>59000000</v>
+      </c>
+      <c r="G27">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>300</v>
+      </c>
+      <c r="H27">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A28,distances!$A$2:$A$12,0),MATCH(B28,distances!$B$1:$L$1,0))</f>
+        <v>439</v>
+      </c>
+      <c r="E28" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90000</v>
+      </c>
+      <c r="F28" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>59000000</v>
+      </c>
+      <c r="G28">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>300</v>
+      </c>
+      <c r="H28">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A29,distances!$A$2:$A$12,0),MATCH(B29,distances!$B$1:$L$1,0))</f>
+        <v>430</v>
+      </c>
+      <c r="E29" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90000</v>
+      </c>
+      <c r="F29" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>59000000</v>
+      </c>
+      <c r="G29">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>300</v>
+      </c>
+      <c r="H29">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A30,distances!$A$2:$A$12,0),MATCH(B30,distances!$B$1:$L$1,0))</f>
+        <v>183</v>
+      </c>
+      <c r="E30" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90000</v>
+      </c>
+      <c r="F30" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>59000000</v>
+      </c>
+      <c r="G30">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>300</v>
+      </c>
+      <c r="H30">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A31,distances!$A$2:$A$12,0),MATCH(B31,distances!$B$1:$L$1,0))</f>
+        <v>135</v>
+      </c>
+      <c r="E31" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90000</v>
+      </c>
+      <c r="F31" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>59000000</v>
+      </c>
+      <c r="G31">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>300</v>
+      </c>
+      <c r="H31">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A32,distances!$A$2:$A$12,0),MATCH(B32,distances!$B$1:$L$1,0))</f>
+        <v>298</v>
+      </c>
+      <c r="E32" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>6000</v>
+      </c>
+      <c r="F32" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>47410000</v>
+      </c>
+      <c r="G32" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>130</v>
+      </c>
+      <c r="H32" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A33,distances!$A$2:$A$12,0),MATCH(B33,distances!$B$1:$L$1,0))</f>
+        <v>235</v>
+      </c>
+      <c r="E33" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>6000</v>
+      </c>
+      <c r="F33" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>44575000</v>
+      </c>
+      <c r="G33" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>130</v>
+      </c>
+      <c r="H33" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A34,distances!$A$2:$A$12,0),MATCH(B34,distances!$B$1:$L$1,0))</f>
+        <v>319</v>
+      </c>
+      <c r="E34" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>6000</v>
+      </c>
+      <c r="F34" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>48355000</v>
+      </c>
+      <c r="G34" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>130</v>
+      </c>
+      <c r="H34" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A35,distances!$A$2:$A$12,0),MATCH(B35,distances!$B$1:$L$1,0))</f>
+        <v>47</v>
+      </c>
+      <c r="E35" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>6000</v>
+      </c>
+      <c r="F35" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>36115000</v>
+      </c>
+      <c r="G35" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>130</v>
+      </c>
+      <c r="H35" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A36,distances!$A$2:$A$12,0),MATCH(B36,distances!$B$1:$L$1,0))</f>
+        <v>280</v>
+      </c>
+      <c r="E36" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>6000</v>
+      </c>
+      <c r="F36" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>46600000</v>
+      </c>
+      <c r="G36" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>130</v>
+      </c>
+      <c r="H36" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A37,distances!$A$2:$A$12,0),MATCH(B37,distances!$B$1:$L$1,0))</f>
+        <v>376</v>
+      </c>
+      <c r="E37" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>6000</v>
+      </c>
+      <c r="F37" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>50920000</v>
+      </c>
+      <c r="G37" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>130</v>
+      </c>
+      <c r="H37" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A38,distances!$A$2:$A$12,0),MATCH(B38,distances!$B$1:$L$1,0))</f>
+        <v>439</v>
+      </c>
+      <c r="E38" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>6000</v>
+      </c>
+      <c r="F38" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>53755000</v>
+      </c>
+      <c r="G38" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>130</v>
+      </c>
+      <c r="H38" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A39,distances!$A$2:$A$12,0),MATCH(B39,distances!$B$1:$L$1,0))</f>
+        <v>430</v>
+      </c>
+      <c r="E39" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>6000</v>
+      </c>
+      <c r="F39" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>53350000</v>
+      </c>
+      <c r="G39" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>130</v>
+      </c>
+      <c r="H39" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A40,distances!$A$2:$A$12,0),MATCH(B40,distances!$B$1:$L$1,0))</f>
+        <v>183</v>
+      </c>
+      <c r="E40" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>6000</v>
+      </c>
+      <c r="F40" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>42235000</v>
+      </c>
+      <c r="G40" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>130</v>
+      </c>
+      <c r="H40" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A41,distances!$A$2:$A$12,0),MATCH(B41,distances!$B$1:$L$1,0))</f>
+        <v>135</v>
+      </c>
+      <c r="E41" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>6000</v>
+      </c>
+      <c r="F41" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40075000</v>
+      </c>
+      <c r="G41" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>130</v>
+      </c>
+      <c r="H41" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A42,distances!$A$2:$A$12,0),MATCH(B42,distances!$B$1:$L$1,0))</f>
+        <v>298</v>
+      </c>
+      <c r="E42" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>11000</v>
+      </c>
+      <c r="F42" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40308000</v>
+      </c>
+      <c r="G42" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90</v>
+      </c>
+      <c r="H42" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A43,distances!$A$2:$A$12,0),MATCH(B43,distances!$B$1:$L$1,0))</f>
+        <v>235</v>
+      </c>
+      <c r="E43" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>11000</v>
+      </c>
+      <c r="F43" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40245000</v>
+      </c>
+      <c r="G43" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90</v>
+      </c>
+      <c r="H43" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A44,distances!$A$2:$A$12,0),MATCH(B44,distances!$B$1:$L$1,0))</f>
+        <v>319</v>
+      </c>
+      <c r="E44" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>11000</v>
+      </c>
+      <c r="F44" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40329000</v>
+      </c>
+      <c r="G44" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90</v>
+      </c>
+      <c r="H44" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A45,distances!$A$2:$A$12,0),MATCH(B45,distances!$B$1:$L$1,0))</f>
+        <v>47</v>
+      </c>
+      <c r="E45" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>11000</v>
+      </c>
+      <c r="F45" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40057000</v>
+      </c>
+      <c r="G45" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90</v>
+      </c>
+      <c r="H45" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A46,distances!$A$2:$A$12,0),MATCH(B46,distances!$B$1:$L$1,0))</f>
+        <v>280</v>
+      </c>
+      <c r="E46" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>11000</v>
+      </c>
+      <c r="F46" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40290000</v>
+      </c>
+      <c r="G46" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90</v>
+      </c>
+      <c r="H46" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A47,distances!$A$2:$A$12,0),MATCH(B47,distances!$B$1:$L$1,0))</f>
+        <v>376</v>
+      </c>
+      <c r="E47" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>11000</v>
+      </c>
+      <c r="F47" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40386000</v>
+      </c>
+      <c r="G47" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90</v>
+      </c>
+      <c r="H47" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A48,distances!$A$2:$A$12,0),MATCH(B48,distances!$B$1:$L$1,0))</f>
+        <v>439</v>
+      </c>
+      <c r="E48" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>11000</v>
+      </c>
+      <c r="F48" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40449000</v>
+      </c>
+      <c r="G48" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90</v>
+      </c>
+      <c r="H48" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A49,distances!$A$2:$A$12,0),MATCH(B49,distances!$B$1:$L$1,0))</f>
+        <v>430</v>
+      </c>
+      <c r="E49" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>11000</v>
+      </c>
+      <c r="F49" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40440000</v>
+      </c>
+      <c r="G49" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90</v>
+      </c>
+      <c r="H49" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A50,distances!$A$2:$A$12,0),MATCH(B50,distances!$B$1:$L$1,0))</f>
+        <v>183</v>
+      </c>
+      <c r="E50" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>11000</v>
+      </c>
+      <c r="F50" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40193000</v>
+      </c>
+      <c r="G50" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90</v>
+      </c>
+      <c r="H50" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="1">
+        <f>INDEX(distances!$B$2:$L$12,MATCH(A51,distances!$A$2:$A$12,0),MATCH(B51,distances!$B$1:$L$1,0))</f>
+        <v>135</v>
+      </c>
+      <c r="E51" s="2">
+        <f>INDEX(param!$L$2:$L$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>11000</v>
+      </c>
+      <c r="F51" s="2">
+        <f>INDEX(param!$M$2:$M$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))+(INDEX(param!$N$2:$N$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))*Table4[[#This Row],[jarak]])</f>
+        <v>40145000</v>
+      </c>
+      <c r="G51" s="1">
+        <f>INDEX(param!$K$2:$K$6,MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0))</f>
+        <v>90</v>
+      </c>
+      <c r="H51" s="1">
+        <f>IF(Table4[[#This Row],[Asal]]="A",INDEX(Table3[limit_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table4[[#This Row],[Moda]],param!$A$2:$A$6,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33914005-EDD7-4078-AA19-CFB2FAA9C5EB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,63 +3817,69 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAC9ABA-F596-4E77-89F6-C70D4E6978D7}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>12</v>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
         <v>-635</v>
@@ -1064,8 +3919,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3">
         <v>87</v>
@@ -1105,8 +3960,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -1146,8 +4001,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
         <v>86</v>
@@ -1187,8 +4042,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>75</v>
@@ -1228,8 +4083,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7">
         <v>42</v>
@@ -1269,8 +4124,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>39</v>
       </c>
       <c r="B8">
         <v>69</v>
@@ -1310,8 +4165,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>40</v>
       </c>
       <c r="B9">
         <v>79</v>
@@ -1351,8 +4206,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>41</v>
       </c>
       <c r="B10">
         <v>43</v>
@@ -1392,8 +4247,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>42</v>
       </c>
       <c r="B11">
         <v>77</v>
@@ -1433,8 +4288,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>43</v>
       </c>
       <c r="B12">
         <v>63</v>
@@ -1475,5 +4330,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>